--- a/examples/eval_from_excel/management/testdata.xlsx
+++ b/examples/eval_from_excel/management/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29429"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Projekte\Innovation Farm\3_Arbeitsprogramm, Use Cases\Datenbank_Modellierung\Datenbank_Bäck_WW_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_EBDA4D936DEE6282388E164C2D2EA65F2A41B3C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264EB5F7-0DE1-45FA-B3A7-3EBC4E3051AD}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="11_EBDA4D936DEE6282388E164C2D2EA65F2A41B3C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77308035-97FA-4539-B6AF-40E6ACAEC8F3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
     <sheet name="tillage" sheetId="28" r:id="rId3"/>
     <sheet name="fertilization" sheetId="29" r:id="rId4"/>
     <sheet name="cropprotection" sheetId="32" r:id="rId5"/>
-    <sheet name="harvest" sheetId="1" r:id="rId6"/>
+    <sheet name="harvestplots" sheetId="1" r:id="rId6"/>
     <sheet name="biomass" sheetId="31" r:id="rId7"/>
     <sheet name="Umrechnungsfaktor" sheetId="38" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Database">harvest!$A$1:$AC$1</definedName>
+    <definedName name="_xlnm.Database">harvestplots!$A$1:$AC$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
